--- a/Quality Input values.xlsx
+++ b/Quality Input values.xlsx
@@ -390,13 +390,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -428,13 +428,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Quality Input values.xlsx
+++ b/Quality Input values.xlsx
@@ -390,13 +390,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -428,13 +428,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Quality Input values.xlsx
+++ b/Quality Input values.xlsx
@@ -368,13 +368,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -384,14 +384,8 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -402,12 +396,6 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -418,13 +406,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -434,14 +422,8 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -452,12 +434,6 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -468,13 +444,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -502,38 +478,8 @@
       <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -550,48 +496,18 @@
         <v>0.61</v>
       </c>
       <c r="F2">
-        <v>-9.808177372731803</v>
+        <v>32.79</v>
       </c>
       <c r="G2">
-        <v>0.24</v>
+        <v>1.25E-09</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>9.5E-10</v>
       </c>
       <c r="I2">
-        <v>5.83E-06</v>
+        <v>8.8E-10</v>
       </c>
       <c r="J2">
-        <v>0.000147</v>
-      </c>
-      <c r="K2">
-        <v>3.06E-06</v>
-      </c>
-      <c r="L2">
-        <v>-2.282782465697866</v>
-      </c>
-      <c r="M2">
-        <v>2.2E-09</v>
-      </c>
-      <c r="N2">
-        <v>0.46</v>
-      </c>
-      <c r="O2">
-        <v>1.25E-09</v>
-      </c>
-      <c r="P2">
-        <v>9.650000000000001E-10</v>
-      </c>
-      <c r="Q2">
-        <v>9.400000000000001E-10</v>
-      </c>
-      <c r="R2">
-        <v>2.1E-09</v>
-      </c>
-      <c r="S2">
-        <v>1E-13</v>
-      </c>
-      <c r="T2">
         <v>9.31E-07</v>
       </c>
     </row>
